--- a/data.xlsx
+++ b/data.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9E6C1E-69CD-4E0A-9ADF-A7E51AA48402}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -81,13 +88,13 @@
     <t>Represent Client in his acquisition of Coca Cola Company.</t>
   </si>
   <si>
-    <t>Elon Musk</t>
+    <t>Donald Trump</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -412,27 +419,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -491,7 +498,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -521,7 +528,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -551,12 +558,12 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.ranker.com/review/baker-and-mckenzie/534060?ref=node_name&amp;pos=1&amp;a=0&amp;ltype=n&amp;l=407667&amp;g=1"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.ranker.com/review/baker-and-mckenzie/534060?ref=node_name&amp;pos=1&amp;a=0&amp;ltype=n&amp;l=407667&amp;g=1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
